--- a/res/sp500_index_price_pe.xlsx
+++ b/res/sp500_index_price_pe.xlsx
@@ -4502,13 +4502,13 @@
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>44055</v>
+        <v>44064</v>
       </c>
       <c r="B370" t="n">
-        <v>3380.35</v>
+        <v>3397.16</v>
       </c>
       <c r="C370" t="n">
-        <v>29.06</v>
+        <v>29.2</v>
       </c>
     </row>
   </sheetData>
